--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.6383641189481</v>
+        <v>374.2110495912509</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.1304847564634</v>
+        <v>512.0120670771097</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.693470070953</v>
+        <v>463.1463540087191</v>
       </c>
       <c r="AD2" t="n">
-        <v>332638.3641189481</v>
+        <v>374211.0495912508</v>
       </c>
       <c r="AE2" t="n">
-        <v>455130.4847564634</v>
+        <v>512012.0670771097</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.493339927380186e-06</v>
+        <v>4.215114857291409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.127170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>411693.470070953</v>
+        <v>463146.3540087192</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.7772972879312</v>
+        <v>189.6063552056436</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.9285440780919</v>
+        <v>259.4277800342735</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.8890479415927</v>
+        <v>234.6683568170542</v>
       </c>
       <c r="AD3" t="n">
-        <v>168777.2972879312</v>
+        <v>189606.3552056436</v>
       </c>
       <c r="AE3" t="n">
-        <v>230928.5440780919</v>
+        <v>259427.7800342735</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.861619149838775e-06</v>
+        <v>6.528258771674692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.247395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>208889.0479415927</v>
+        <v>234668.3568170542</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.39535905333</v>
+        <v>162.5534708125004</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.7809270108141</v>
+        <v>222.4128301185662</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.6228876610682</v>
+        <v>201.1860617704818</v>
       </c>
       <c r="AD4" t="n">
-        <v>131395.35905333</v>
+        <v>162553.4708125004</v>
       </c>
       <c r="AE4" t="n">
-        <v>179780.9270108141</v>
+        <v>222412.8301185662</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.384935768186124e-06</v>
+        <v>7.412951479973452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.620225694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>162622.8876610682</v>
+        <v>201186.0617704818</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.536216791944</v>
+        <v>148.450526055677</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.5006783154479</v>
+        <v>203.1165589242786</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.8465784903104</v>
+        <v>183.7313996164841</v>
       </c>
       <c r="AD5" t="n">
-        <v>127536.216791944</v>
+        <v>148450.526055677</v>
       </c>
       <c r="AE5" t="n">
-        <v>174500.6783154478</v>
+        <v>203116.5589242786</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.463363236413023e-06</v>
+        <v>7.545537006284059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>157846.5784903104</v>
+        <v>183731.3996164841</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.7776315839812</v>
+        <v>270.0545621048529</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.3918926067233</v>
+        <v>369.5005658382954</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.3867716282234</v>
+        <v>334.2359504319889</v>
       </c>
       <c r="AD2" t="n">
-        <v>229777.6315839812</v>
+        <v>270054.5621048529</v>
       </c>
       <c r="AE2" t="n">
-        <v>314391.8926067233</v>
+        <v>369500.5658382954</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.072106305726402e-06</v>
+        <v>5.320246074289094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>284386.7716282234</v>
+        <v>334235.9504319889</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.3176618716949</v>
+        <v>159.5040245487033</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.938130065372</v>
+        <v>218.2404432083667</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.0514032662076</v>
+        <v>197.4118816110086</v>
       </c>
       <c r="AD3" t="n">
-        <v>129317.6618716949</v>
+        <v>159504.0245487033</v>
       </c>
       <c r="AE3" t="n">
-        <v>176938.130065372</v>
+        <v>218240.4432083667</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.361044547305893e-06</v>
+        <v>7.552417730257527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.806857638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>160051.4032662075</v>
+        <v>197411.8816110086</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.6166143001252</v>
+        <v>140.8830908424168</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.0329729148291</v>
+        <v>192.7624602138216</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.2824576051157</v>
+        <v>174.365481554881</v>
       </c>
       <c r="AD4" t="n">
-        <v>120616.6143001252</v>
+        <v>140883.0908424168</v>
       </c>
       <c r="AE4" t="n">
-        <v>165032.9729148291</v>
+        <v>192762.4602138216</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.555954803694607e-06</v>
+        <v>7.889961559537728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>149282.4576051157</v>
+        <v>174365.481554881</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.0453750355385</v>
+        <v>133.2761957695201</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.4101575672958</v>
+        <v>182.3543707825639</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.38715305566</v>
+        <v>164.950725571094</v>
       </c>
       <c r="AD2" t="n">
-        <v>115045.3750355385</v>
+        <v>133276.1957695201</v>
       </c>
       <c r="AE2" t="n">
-        <v>157410.1575672958</v>
+        <v>182354.3707825639</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.614957372273251e-06</v>
+        <v>8.732492439723646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.067274305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>142387.15305566</v>
+        <v>164950.725571094</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.2302839727875</v>
+        <v>154.2236350392832</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.0280404705603</v>
+        <v>211.0155813272378</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.3692239765878</v>
+        <v>190.8765504076549</v>
       </c>
       <c r="AD2" t="n">
-        <v>135230.2839727875</v>
+        <v>154223.6350392832</v>
       </c>
       <c r="AE2" t="n">
-        <v>185028.0404705603</v>
+        <v>211015.5813272378</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243312392828256e-06</v>
+        <v>7.730393639297386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>167369.2239765878</v>
+        <v>190876.550407655</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.3294857239132</v>
+        <v>138.7340372062586</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.9576697607803</v>
+        <v>189.8220302192763</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.5504816292727</v>
+        <v>171.7056820720948</v>
       </c>
       <c r="AD3" t="n">
-        <v>110329.4857239132</v>
+        <v>138734.0372062586</v>
       </c>
       <c r="AE3" t="n">
-        <v>150957.6697607803</v>
+        <v>189822.0302192763</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.663880276447414e-06</v>
+        <v>8.496576986513861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.798177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136550.4816292727</v>
+        <v>171705.6820720948</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.3804130974831</v>
+        <v>139.6177707980925</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.1320831907128</v>
+        <v>191.0311935071974</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.32649490028</v>
+        <v>172.7994445128884</v>
       </c>
       <c r="AD2" t="n">
-        <v>113380.4130974831</v>
+        <v>139617.7707980925</v>
       </c>
       <c r="AE2" t="n">
-        <v>155132.0831907128</v>
+        <v>191031.1935071974</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.45251777250988e-06</v>
+        <v>8.725500230810755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>140326.49490028</v>
+        <v>172799.4445128884</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.6196827264876</v>
+        <v>288.1468917050901</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.4866152844885</v>
+        <v>394.2552893745893</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.8457874399139</v>
+        <v>356.6281178974517</v>
       </c>
       <c r="AD2" t="n">
-        <v>257619.6827264876</v>
+        <v>288146.8917050901</v>
       </c>
       <c r="AE2" t="n">
-        <v>352486.6152844885</v>
+        <v>394255.2893745893</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919406066392119e-06</v>
+        <v>5.022783273674051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.115885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>318845.7874399138</v>
+        <v>356628.1178974517</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.8101498964029</v>
+        <v>167.2519285118791</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.1896827260152</v>
+        <v>228.8414672241775</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.3245621290667</v>
+        <v>207.0011587733844</v>
       </c>
       <c r="AD3" t="n">
-        <v>136810.1498964029</v>
+        <v>167251.9285118791</v>
       </c>
       <c r="AE3" t="n">
-        <v>187189.6827260152</v>
+        <v>228841.4672241775</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.217632442735605e-06</v>
+        <v>7.256357356980319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.924045138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>169324.5621290668</v>
+        <v>207001.1587733843</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.0270085071487</v>
+        <v>142.4637623417522</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.9627364910787</v>
+        <v>194.9252046935163</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.0280472540888</v>
+        <v>176.3218167368653</v>
       </c>
       <c r="AD4" t="n">
-        <v>122027.0085071487</v>
+        <v>142463.7623417522</v>
       </c>
       <c r="AE4" t="n">
-        <v>166962.7364910787</v>
+        <v>194925.2046935163</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.537139900100094e-06</v>
+        <v>7.806063932964711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.578993055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>151028.0472540888</v>
+        <v>176321.8167368653</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.8027760514869</v>
+        <v>139.6552025002504</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.709978817719</v>
+        <v>191.0824092134599</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.8492369797264</v>
+        <v>172.8457722640269</v>
       </c>
       <c r="AD2" t="n">
-        <v>113802.7760514869</v>
+        <v>139655.2025002504</v>
       </c>
       <c r="AE2" t="n">
-        <v>155709.978817719</v>
+        <v>191082.4092134599</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.273912824177324e-06</v>
+        <v>8.567743691697085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.815972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>140849.2369797264</v>
+        <v>172845.7722640269</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.2303332683017</v>
+        <v>213.5878371552256</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.0720696462569</v>
+        <v>292.2403016259895</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.0146651046632</v>
+        <v>264.3492974007306</v>
       </c>
       <c r="AD2" t="n">
-        <v>184230.3332683017</v>
+        <v>213587.8371552256</v>
       </c>
       <c r="AE2" t="n">
-        <v>252072.0696462569</v>
+        <v>292240.3016259895</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.585068323095039e-06</v>
+        <v>6.349422395514232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.024305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>228014.6651046632</v>
+        <v>264349.2974007306</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.5926180832745</v>
+        <v>143.9500324616473</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.7906755309815</v>
+        <v>196.9587850411658</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.8267935154428</v>
+        <v>178.1613150302837</v>
       </c>
       <c r="AD3" t="n">
-        <v>114592.6180832745</v>
+        <v>143950.0324616474</v>
       </c>
       <c r="AE3" t="n">
-        <v>156790.6755309815</v>
+        <v>196958.7850411658</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640905077329158e-06</v>
+        <v>8.219387743218835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.652777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>141826.7935154428</v>
+        <v>178161.3150302837</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.4272023728987</v>
+        <v>243.5191183089468</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.0205140301036</v>
+        <v>333.1936009754205</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.1504860245221</v>
+        <v>301.3940713385815</v>
       </c>
       <c r="AD2" t="n">
-        <v>213427.2023728987</v>
+        <v>243519.1183089468</v>
       </c>
       <c r="AE2" t="n">
-        <v>292020.5140301036</v>
+        <v>333193.6009754205</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.234475884590387e-06</v>
+        <v>5.640643510864877e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.54296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>264150.4860245221</v>
+        <v>301394.0713385815</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.2207207905967</v>
+        <v>152.1419550175016</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.2277821832749</v>
+        <v>208.1673348841966</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.2677973574159</v>
+        <v>188.3001366075977</v>
       </c>
       <c r="AD3" t="n">
-        <v>122220.7207905967</v>
+        <v>152141.9550175016</v>
       </c>
       <c r="AE3" t="n">
-        <v>167227.7821832749</v>
+        <v>208167.3348841966</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.499190764131637e-06</v>
+        <v>7.846195826887798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.702690972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>151267.7973574159</v>
+        <v>188300.1366075977</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.6097804405536</v>
+        <v>138.6995046827762</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.2871342929033</v>
+        <v>189.7747812971804</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.7986779674569</v>
+        <v>171.6629425208094</v>
       </c>
       <c r="AD4" t="n">
-        <v>118609.7804405536</v>
+        <v>138699.5046827762</v>
       </c>
       <c r="AE4" t="n">
-        <v>162287.1342929033</v>
+        <v>189774.7812971804</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.591233848418658e-06</v>
+        <v>8.006710928755474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>146798.6779674569</v>
+        <v>171662.9425208094</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.5523384251932</v>
+        <v>339.9020397205906</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.4924806329451</v>
+        <v>465.0689661653819</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.5065316041334</v>
+        <v>420.6834367629507</v>
       </c>
       <c r="AD2" t="n">
-        <v>298552.3384251932</v>
+        <v>339902.0397205906</v>
       </c>
       <c r="AE2" t="n">
-        <v>408492.4806329451</v>
+        <v>465068.9661653819</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.629500596403878e-06</v>
+        <v>4.469976740109105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.766927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>369506.5316041334</v>
+        <v>420683.4367629507</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.6752006709783</v>
+        <v>182.3501408272277</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.2111421643922</v>
+        <v>249.4995074001445</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.0990612280741</v>
+        <v>225.6876245887052</v>
       </c>
       <c r="AD3" t="n">
-        <v>161675.2006709783</v>
+        <v>182350.1408272277</v>
       </c>
       <c r="AE3" t="n">
-        <v>221211.1421643922</v>
+        <v>249499.5074001445</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.971825829278198e-06</v>
+        <v>6.751840671539891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.143229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>200099.0612280741</v>
+        <v>225687.6245887052</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.5816666028041</v>
+        <v>147.3418581050742</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.194620634885</v>
+        <v>201.5996305232865</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.6651691217166</v>
+        <v>182.3592447330599</v>
       </c>
       <c r="AD4" t="n">
-        <v>126581.6666028041</v>
+        <v>147341.8581050741</v>
       </c>
       <c r="AE4" t="n">
-        <v>173194.620634885</v>
+        <v>201599.6305232865</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.47156269996197e-06</v>
+        <v>7.60136023095218e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.568142361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>156665.1691217166</v>
+        <v>182359.2447330599</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.6618086817807</v>
+        <v>146.4220001840508</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.9360304460741</v>
+        <v>200.3410403344756</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.5266970140829</v>
+        <v>181.2207726254262</v>
       </c>
       <c r="AD5" t="n">
-        <v>125661.8086817807</v>
+        <v>146422.0001840508</v>
       </c>
       <c r="AE5" t="n">
-        <v>171936.0304460741</v>
+        <v>200341.0403344756</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.492267429067512e-06</v>
+        <v>7.636556898197133e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.546440972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>155526.697014083</v>
+        <v>181220.7726254262</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.071544815281</v>
+        <v>176.8959838987425</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.5980200716967</v>
+        <v>242.0368892701732</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.2623493842186</v>
+        <v>218.9372282592057</v>
       </c>
       <c r="AD2" t="n">
-        <v>148071.544815281</v>
+        <v>176895.9838987425</v>
       </c>
       <c r="AE2" t="n">
-        <v>202598.0200716967</v>
+        <v>242036.8892701732</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.996858517197013e-06</v>
+        <v>7.207281722875774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.52734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>183262.3493842186</v>
+        <v>218937.2282592057</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.6515280565128</v>
+        <v>140.3906262854027</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.7665464046335</v>
+        <v>192.0886484809124</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.1867216250115</v>
+        <v>173.7559774680598</v>
       </c>
       <c r="AD3" t="n">
-        <v>111651.5280565128</v>
+        <v>140390.6262854027</v>
       </c>
       <c r="AE3" t="n">
-        <v>152766.5464046335</v>
+        <v>192088.6484809124</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.66629362904158e-06</v>
+        <v>8.414431644617882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.735243055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>138186.7216250115</v>
+        <v>173755.9774680598</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.5428017182055</v>
+        <v>135.2126223620623</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.1448057643513</v>
+        <v>185.0038750755907</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.1015120212735</v>
+        <v>167.3473648929978</v>
       </c>
       <c r="AD2" t="n">
-        <v>107542.8017182055</v>
+        <v>135212.6223620623</v>
       </c>
       <c r="AE2" t="n">
-        <v>147144.8057643513</v>
+        <v>185003.8750755907</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.631328306438101e-06</v>
+        <v>8.64057824935356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.969618055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>133101.5120212735</v>
+        <v>167347.3648929978</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.7679682773305</v>
+        <v>135.4377889211873</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.4528885841935</v>
+        <v>185.311957895433</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.380191849187</v>
+        <v>167.6260447209113</v>
       </c>
       <c r="AD3" t="n">
-        <v>107767.9682773305</v>
+        <v>135437.7889211873</v>
       </c>
       <c r="AE3" t="n">
-        <v>147452.8885841935</v>
+        <v>185311.9578954329</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640131096797961e-06</v>
+        <v>8.657001442417048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>133380.191849187</v>
+        <v>167626.0447209113</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.0787687994948</v>
+        <v>132.012503601031</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.087604271484</v>
+        <v>180.6253314074742</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.1908223901848</v>
+        <v>163.3867032872403</v>
       </c>
       <c r="AD2" t="n">
-        <v>114078.7687994948</v>
+        <v>132012.503601031</v>
       </c>
       <c r="AE2" t="n">
-        <v>156087.604271484</v>
+        <v>180625.3314074742</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550627009177822e-06</v>
+        <v>8.751024492316005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.232204861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>141190.8223901848</v>
+        <v>163386.7032872403</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.0422340139354</v>
+        <v>149.1631829182224</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.7200569349376</v>
+        <v>204.0916474838146</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.5222129047103</v>
+        <v>184.6134270924437</v>
       </c>
       <c r="AD2" t="n">
-        <v>124042.2340139354</v>
+        <v>149163.1829182224</v>
       </c>
       <c r="AE2" t="n">
-        <v>169720.0569349376</v>
+        <v>204091.6474838146</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.977032182700331e-06</v>
+        <v>8.20302388107549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.42578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>153522.2129047103</v>
+        <v>184613.4270924437</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.9561126649093</v>
+        <v>227.6015392294505</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.8522865553361</v>
+        <v>311.4144670448367</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.0025244701459</v>
+        <v>281.6935073831193</v>
       </c>
       <c r="AD2" t="n">
-        <v>197956.1126649093</v>
+        <v>227601.5392294505</v>
       </c>
       <c r="AE2" t="n">
-        <v>270852.2865553361</v>
+        <v>311414.4670448367</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409753324946405e-06</v>
+        <v>5.990802084746385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.267361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>245002.5244701459</v>
+        <v>281693.5073831193</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2254579619685</v>
+        <v>146.8707950179587</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.3930432057066</v>
+        <v>200.9551012256588</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.0853562752481</v>
+        <v>181.776228406995</v>
       </c>
       <c r="AD3" t="n">
-        <v>117225.4579619685</v>
+        <v>146870.7950179587</v>
       </c>
       <c r="AE3" t="n">
-        <v>160393.0432057066</v>
+        <v>200955.1012256588</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.598267776319059e-06</v>
+        <v>8.078975091556611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>145085.3562752481</v>
+        <v>181776.228406995</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.7783634370809</v>
+        <v>146.4237004930711</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.7813087523373</v>
+        <v>200.3433667722894</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.5320048995335</v>
+        <v>181.2228770312803</v>
       </c>
       <c r="AD4" t="n">
-        <v>116778.3634370809</v>
+        <v>146423.7004930711</v>
       </c>
       <c r="AE4" t="n">
-        <v>159781.3087523373</v>
+        <v>200343.3667722894</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.621606737705695e-06</v>
+        <v>8.119980726042817e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.624565972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>144532.0048995335</v>
+        <v>181222.8770312803</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.3243833603079</v>
+        <v>318.185418249378</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.4474560018873</v>
+        <v>435.3553265987468</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.2335233589157</v>
+        <v>393.8056252532</v>
       </c>
       <c r="AD2" t="n">
-        <v>277324.383360308</v>
+        <v>318185.418249378</v>
       </c>
       <c r="AE2" t="n">
-        <v>379447.4560018873</v>
+        <v>435355.3265987468</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.769801525830854e-06</v>
+        <v>4.736051935853602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>343233.5233589157</v>
+        <v>393805.6252532001</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.7318958443743</v>
+        <v>175.2477988977562</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.7110061836473</v>
+        <v>239.7817698390344</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.5056048918039</v>
+        <v>216.8973342614941</v>
       </c>
       <c r="AD3" t="n">
-        <v>154731.8958443743</v>
+        <v>175247.7988977562</v>
       </c>
       <c r="AE3" t="n">
-        <v>211711.0061836473</v>
+        <v>239781.7698390344</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.083910458601365e-06</v>
+        <v>6.98303176344373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.043402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>191505.6048918039</v>
+        <v>216897.334261494</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.2436941888903</v>
+        <v>143.8448485882928</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.6274595172207</v>
+        <v>196.8148678252571</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.5338914510698</v>
+        <v>178.0311330714722</v>
       </c>
       <c r="AD4" t="n">
-        <v>123243.6941888903</v>
+        <v>143844.8485882928</v>
       </c>
       <c r="AE4" t="n">
-        <v>168627.4595172207</v>
+        <v>196814.8678252571</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.529253701054571e-06</v>
+        <v>7.744519077920947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.546440972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>152533.8914510698</v>
+        <v>178031.1330714722</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.631660348369</v>
+        <v>144.2328147477714</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.1582919324781</v>
+        <v>197.3457002405145</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.0140619656432</v>
+        <v>178.5113035860456</v>
       </c>
       <c r="AD5" t="n">
-        <v>123631.660348369</v>
+        <v>144232.8147477714</v>
       </c>
       <c r="AE5" t="n">
-        <v>169158.2919324781</v>
+        <v>197345.7002405145</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.528684329766543e-06</v>
+        <v>7.743545516470517e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.546440972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>153014.0619656432</v>
+        <v>178511.3035860456</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.2159480574968</v>
+        <v>170.7676619244854</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.1131577894608</v>
+        <v>233.6518487825146</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.0644634320719</v>
+        <v>211.3524442672082</v>
       </c>
       <c r="AD2" t="n">
-        <v>138215.9480574968</v>
+        <v>170767.6619244854</v>
       </c>
       <c r="AE2" t="n">
-        <v>189113.1577894608</v>
+        <v>233651.8487825146</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.407955494029431e-06</v>
+        <v>7.304818295498561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.764756944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>171064.4634320719</v>
+        <v>211352.4442672082</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.1412953908236</v>
+        <v>142.8978728495332</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.8555970810754</v>
+        <v>195.5191738418658</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.6448172895326</v>
+        <v>176.8590983033374</v>
       </c>
       <c r="AD2" t="n">
-        <v>124141.2953908236</v>
+        <v>142897.8728495332</v>
       </c>
       <c r="AE2" t="n">
-        <v>169855.5970810755</v>
+        <v>195519.1738418658</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.478123173903339e-06</v>
+        <v>8.250639831802819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.065104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>153644.8172895326</v>
+        <v>176859.0983033374</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.6603919176526</v>
+        <v>136.7097829883188</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.6739419798338</v>
+        <v>187.0523562944991</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.484709622507</v>
+        <v>169.2003419394357</v>
       </c>
       <c r="AD3" t="n">
-        <v>108660.3919176526</v>
+        <v>136709.7829883188</v>
       </c>
       <c r="AE3" t="n">
-        <v>148673.9419798338</v>
+        <v>187052.3562944991</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.669693370359762e-06</v>
+        <v>8.603594994510405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>134484.709622507</v>
+        <v>169200.3419394357</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.6671992017597</v>
+        <v>189.8084919244664</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.8319500843218</v>
+        <v>259.7043524106093</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.851497304417</v>
+        <v>234.9185335139644</v>
       </c>
       <c r="AD2" t="n">
-        <v>160667.1992017597</v>
+        <v>189808.4919244664</v>
       </c>
       <c r="AE2" t="n">
-        <v>219831.9500843218</v>
+        <v>259704.3524106093</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.785720208588288e-06</v>
+        <v>6.762912877291417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.768229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>198851.497304417</v>
+        <v>234918.5335139644</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.136678712334</v>
+        <v>142.1926305804691</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.7985950521499</v>
+        <v>194.5542302562398</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.0248344016077</v>
+        <v>175.9862475792165</v>
       </c>
       <c r="AD3" t="n">
-        <v>113136.678712334</v>
+        <v>142192.6305804692</v>
       </c>
       <c r="AE3" t="n">
-        <v>154798.5950521499</v>
+        <v>194554.2302562398</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.655400451068381e-06</v>
+        <v>8.316533162713358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.689670138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>140024.8344016077</v>
+        <v>175986.2475792165</v>
       </c>
     </row>
   </sheetData>
